--- a/scraper/top_remaining_spreadsheets_states/top_remaining_ID.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_ID.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>STATE</t>
   </si>
@@ -44,75 +44,78 @@
     <t>Rollin' in the Dough</t>
   </si>
   <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>Lucky 13</t>
+  </si>
+  <si>
+    <t>Sheep Thrills</t>
+  </si>
+  <si>
+    <t>Rapid Refund</t>
+  </si>
+  <si>
+    <t>$2.00 Games</t>
+  </si>
+  <si>
+    <t>Lucky No 7 purple</t>
+  </si>
+  <si>
+    <t>Cherry, Lime, and Orange Twist</t>
+  </si>
+  <si>
+    <t>Lumberjack</t>
+  </si>
+  <si>
+    <t>Holiday Gold</t>
+  </si>
+  <si>
+    <t>2019-02-15</t>
+  </si>
+  <si>
+    <t>$3.00 Games</t>
+  </si>
+  <si>
+    <t>Jolly Holiday Cashword</t>
+  </si>
+  <si>
+    <t>Slingo 3X</t>
+  </si>
+  <si>
+    <t>Bingo Plus</t>
+  </si>
+  <si>
+    <t>Chameleon Cashword</t>
+  </si>
+  <si>
+    <t>Bear Assets Bingo</t>
+  </si>
+  <si>
+    <t>$5.00 Games</t>
+  </si>
+  <si>
+    <t>Bengals</t>
+  </si>
+  <si>
+    <t>Winter Green</t>
+  </si>
+  <si>
     <t>2019-03-07</t>
   </si>
   <si>
-    <t>Lucky 13</t>
-  </si>
-  <si>
-    <t>Sheep Thrills</t>
-  </si>
-  <si>
-    <t>Rapid Refund</t>
-  </si>
-  <si>
-    <t>$2.00 Games</t>
-  </si>
-  <si>
-    <t>Holiday Gold</t>
-  </si>
-  <si>
-    <t>2019-02-15</t>
-  </si>
-  <si>
-    <t>Lucky No 7 purple</t>
-  </si>
-  <si>
-    <t>Cherry, Lime, and Orange Twist</t>
-  </si>
-  <si>
-    <t>Lumberjack</t>
-  </si>
-  <si>
-    <t>$3.00 Games</t>
-  </si>
-  <si>
-    <t>Jolly Holiday Cashword</t>
-  </si>
-  <si>
-    <t>Slingo 3X</t>
-  </si>
-  <si>
-    <t>Bingo Plus</t>
-  </si>
-  <si>
-    <t>Chameleon Cashword</t>
-  </si>
-  <si>
-    <t>Bear Assets Bingo</t>
-  </si>
-  <si>
-    <t>$5.00 Games</t>
-  </si>
-  <si>
-    <t>Bengals</t>
-  </si>
-  <si>
-    <t>Winter Green</t>
+    <t>Marilyn Monroe</t>
+  </si>
+  <si>
+    <t>Plum Crazy</t>
+  </si>
+  <si>
+    <t>Crazy Cashword Connect</t>
   </si>
   <si>
     <t>Triple Red 7s</t>
   </si>
   <si>
-    <t>Plum Crazy</t>
-  </si>
-  <si>
-    <t>Marilyn Monroe</t>
-  </si>
-  <si>
-    <t>Crazy Cashword Connect</t>
-  </si>
-  <si>
     <t>Big Beach Party Bingo</t>
   </si>
   <si>
@@ -143,10 +146,10 @@
     <t>Limited 4</t>
   </si>
   <si>
+    <t>Lucky Jackpot Super Ticket</t>
+  </si>
+  <si>
     <t>Limited 3rd Edition</t>
-  </si>
-  <si>
-    <t>Lucky Jackpot Super Ticket</t>
   </si>
   <si>
     <t>$20.00 Games</t>
@@ -637,13 +640,13 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>16141</v>
+        <v>17251</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -654,13 +657,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>17251</v>
+        <v>19122</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -674,13 +677,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>19122</v>
+        <v>18629</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -694,16 +697,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>16141</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>18</v>
-      </c>
-      <c r="D9">
-        <v>18629</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -843,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -854,13 +857,13 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>18405</v>
+        <v>18406</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -874,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>15839</v>
@@ -894,13 +897,13 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>18406</v>
+        <v>19020</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -914,13 +917,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>19020</v>
+        <v>18405</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -934,7 +937,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>1778</v>
@@ -954,7 +957,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>2008</v>
@@ -974,7 +977,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>19102</v>
@@ -994,7 +997,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>2009</v>
@@ -1014,7 +1017,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>16210</v>
@@ -1023,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1031,10 +1034,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>16036</v>
@@ -1051,10 +1054,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>19144</v>
@@ -1071,16 +1074,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>18396</v>
       </c>
       <c r="E28">
-        <v>8929</v>
+        <v>8595</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1091,19 +1094,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29">
-        <v>1786</v>
+        <v>15710</v>
       </c>
       <c r="E29">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1111,19 +1114,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>1786</v>
+      </c>
+      <c r="E30">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30">
-        <v>15710</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1131,10 +1134,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>66</v>
@@ -1143,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1151,10 +1154,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>15619</v>
@@ -1171,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33">
         <v>19021</v>
@@ -1191,10 +1194,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>16130</v>
@@ -1203,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1211,10 +1214,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35">
         <v>16209</v>
@@ -1231,10 +1234,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36">
         <v>19145</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_ID.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_ID.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>STATE</t>
   </si>
@@ -41,19 +41,25 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>Lucky 13</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>Sheep Thrills</t>
+  </si>
+  <si>
+    <t>Okey Dokey Artichokey</t>
+  </si>
+  <si>
+    <t>Rapid Refund</t>
+  </si>
+  <si>
     <t>Rollin' in the Dough</t>
   </si>
   <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>Lucky 13</t>
-  </si>
-  <si>
-    <t>Sheep Thrills</t>
-  </si>
-  <si>
-    <t>Rapid Refund</t>
+    <t>2019-03-16</t>
   </si>
   <si>
     <t>$2.00 Games</t>
@@ -62,78 +68,75 @@
     <t>Lucky No 7 purple</t>
   </si>
   <si>
+    <t>Lumberjack</t>
+  </si>
+  <si>
+    <t>Double Match</t>
+  </si>
+  <si>
     <t>Cherry, Lime, and Orange Twist</t>
   </si>
   <si>
-    <t>Lumberjack</t>
-  </si>
-  <si>
-    <t>Holiday Gold</t>
-  </si>
-  <si>
-    <t>2019-02-15</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
     <t>Jolly Holiday Cashword</t>
   </si>
   <si>
+    <t>Bingo Plus</t>
+  </si>
+  <si>
     <t>Slingo 3X</t>
   </si>
   <si>
-    <t>Bingo Plus</t>
+    <t>Bear Assets Bingo</t>
   </si>
   <si>
     <t>Chameleon Cashword</t>
   </si>
   <si>
-    <t>Bear Assets Bingo</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>Plum Crazy</t>
+  </si>
+  <si>
+    <t>Crazy Cashword Connect</t>
+  </si>
+  <si>
+    <t>Triple Red 7s</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>Marilyn Monroe</t>
+  </si>
+  <si>
+    <t>2019-03-29</t>
+  </si>
+  <si>
     <t>Bengals</t>
   </si>
   <si>
-    <t>Winter Green</t>
-  </si>
-  <si>
-    <t>2019-03-07</t>
-  </si>
-  <si>
-    <t>Marilyn Monroe</t>
-  </si>
-  <si>
-    <t>Plum Crazy</t>
-  </si>
-  <si>
-    <t>Crazy Cashword Connect</t>
-  </si>
-  <si>
-    <t>Triple Red 7s</t>
-  </si>
-  <si>
     <t>Big Beach Party Bingo</t>
   </si>
   <si>
+    <t>$30,000 30th Anniversary</t>
+  </si>
+  <si>
+    <t>Frogger lll</t>
+  </si>
+  <si>
+    <t>Slingo Pro</t>
+  </si>
+  <si>
     <t>Broncos</t>
   </si>
   <si>
-    <t>$30,000 30th Anniversary</t>
-  </si>
-  <si>
     <t>Vandals</t>
   </si>
   <si>
-    <t>5 Star Fortune</t>
-  </si>
-  <si>
-    <t>2019-03-04</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
@@ -149,28 +152,19 @@
     <t>Lucky Jackpot Super Ticket</t>
   </si>
   <si>
-    <t>Limited 3rd Edition</t>
+    <t>Mega Winnings Cashword</t>
   </si>
   <si>
     <t>$20.00 Games</t>
   </si>
   <si>
-    <t>Epic Fortune</t>
-  </si>
-  <si>
-    <t>2019-02-12</t>
-  </si>
-  <si>
     <t>Juggernaut Jackpot</t>
   </si>
   <si>
     <t>High Roller</t>
   </si>
   <si>
-    <t>Jackpot Frost</t>
-  </si>
-  <si>
-    <t>2019-03-05</t>
+    <t>$250,000 Jackpot</t>
   </si>
   <si>
     <t>$25.00 Games</t>
@@ -560,10 +554,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>16140</v>
+        <v>18197</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -580,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>18197</v>
+        <v>19285</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -600,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>19285</v>
+        <v>19495</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -634,19 +628,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6">
+        <v>16140</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6">
-        <v>17251</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -654,16 +648,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>19122</v>
+        <v>17251</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -674,10 +668,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>18629</v>
@@ -694,19 +688,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>16141</v>
+        <v>19609</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -714,13 +708,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
       <c r="D10">
-        <v>16129</v>
+        <v>19122</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -734,16 +728,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11">
-        <v>18198</v>
+        <v>16129</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -754,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -774,16 +768,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13">
-        <v>19019</v>
+        <v>18198</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -794,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -814,16 +808,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
       <c r="D15">
-        <v>2010</v>
+        <v>19019</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -834,19 +828,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>16148</v>
+        <v>15839</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -854,16 +848,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>18406</v>
+        <v>19020</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -874,19 +868,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>18405</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>30</v>
-      </c>
-      <c r="D18">
-        <v>15839</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -894,19 +888,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19">
-        <v>19020</v>
+        <v>18406</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -914,13 +908,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>18405</v>
+        <v>2010</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -934,10 +928,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>1778</v>
@@ -954,16 +948,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>2008</v>
+        <v>19102</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -974,13 +968,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>19102</v>
+        <v>19494</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -994,16 +988,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24">
-        <v>2009</v>
+        <v>19610</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1014,19 +1008,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>16210</v>
+        <v>2008</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1034,13 +1028,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
       <c r="D26">
-        <v>16036</v>
+        <v>2009</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1054,16 +1048,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
       </c>
       <c r="D27">
-        <v>19144</v>
+        <v>16036</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1074,16 +1068,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
       </c>
       <c r="D28">
-        <v>18396</v>
+        <v>19144</v>
       </c>
       <c r="E28">
-        <v>8595</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1094,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
       </c>
       <c r="D29">
-        <v>15710</v>
+        <v>18396</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>6897</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1114,19 +1108,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
       </c>
       <c r="D30">
-        <v>1786</v>
+        <v>15710</v>
       </c>
       <c r="E30">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1134,19 +1128,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
         <v>45</v>
       </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
       <c r="D31">
-        <v>66</v>
+        <v>19397</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1154,10 +1148,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32">
         <v>15619</v>
@@ -1174,10 +1168,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>19021</v>
@@ -1194,19 +1188,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34">
-        <v>16130</v>
+        <v>19398</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1214,10 +1208,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35">
         <v>16209</v>
@@ -1234,10 +1228,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36">
         <v>19145</v>
